--- a/data/22-08-2025-employees-export.xlsx
+++ b/data/22-08-2025-employees-export.xlsx
@@ -55,7 +55,7 @@
     <t>Updated At</t>
   </si>
   <si>
-    <t>c4d829ce-d723-4d71-a952-ff42bc2f683c</t>
+    <t>4a97008a-caa3-4f1a-abfb-c2a5ff1fcd62</t>
   </si>
   <si>
     <t>99304749</t>
@@ -76,7 +76,7 @@
     <t>true</t>
   </si>
   <si>
-    <t>f21ac8bd-092c-42d1-8fcf-acbabb54e32c</t>
+    <t>d8161699-36fc-43dc-9268-601bb1782948</t>
   </si>
   <si>
     <t>902622</t>
@@ -88,7 +88,7 @@
     <t>f8c3ae99-a13a-4593-a249-0d9e6efd5268</t>
   </si>
   <si>
-    <t>53ff49e2-7e1c-4283-8cf1-a562ee6bc2d0</t>
+    <t>14b30776-cfc2-4ad1-809f-46279dc166cd</t>
   </si>
   <si>
     <t>1001873</t>
@@ -109,7 +109,7 @@
     <t>65c6bfbb-bb0e-48eb-8196-3caee681f86c</t>
   </si>
   <si>
-    <t>b4e2f05f-62c5-4b9f-bea0-14066bb8fc7c</t>
+    <t>5aab57de-3873-4699-b056-187d27aeb142</t>
   </si>
   <si>
     <t>99604470</t>
@@ -124,7 +124,7 @@
     <t>87886f29-f54f-4a16-86dd-25063c20de5b</t>
   </si>
   <si>
-    <t>6e1acc26-d090-4d58-a737-99e5625a75ef</t>
+    <t>67f2bdb7-c0fa-4e0c-8586-ac04260424ce</t>
   </si>
   <si>
     <t>403046</t>
@@ -136,7 +136,7 @@
     <t>PCL-B, Baishnabghata-Patuli Qtr, Kolkata-94</t>
   </si>
   <si>
-    <t>61c9c886-b729-4073-a721-305f517375c1</t>
+    <t>47aedf9e-f0f6-4738-b27b-d765ad2c01d8</t>
   </si>
   <si>
     <t>60047528</t>
@@ -145,7 +145,7 @@
     <t>SRIBAS MONDAL</t>
   </si>
   <si>
-    <t>5e969998-6569-4562-b432-a414edbd2bd9</t>
+    <t>2bedd0f2-d139-4492-a46f-d893ff7b2539</t>
   </si>
   <si>
     <t>205140</t>
@@ -160,7 +160,7 @@
     <t>98e2ca6c-9921-43b1-9138-85cf2d08ff1f</t>
   </si>
   <si>
-    <t>cc95ce43-4973-4cfb-9e7f-2ae39294c9ce</t>
+    <t>6503bfdf-7686-4388-a849-ce85020797f7</t>
   </si>
   <si>
     <t>99104961</t>
@@ -175,7 +175,7 @@
     <t>7138be3a-890e-41ae-a480-34583d7ffeae</t>
   </si>
   <si>
-    <t>5b84e3f3-c8b2-4c98-83bd-4f28d3d5f7c4</t>
+    <t>7d14c5c6-58d2-4bc2-b7d7-67cceeafc3c1</t>
   </si>
   <si>
     <t>600436</t>
@@ -187,7 +187,7 @@
     <t>Modello Highs, Flat 1/8D, Narendrapur, Kolkata 700103</t>
   </si>
   <si>
-    <t>5e52f964-1b8c-4191-bff0-69d50f1f028c</t>
+    <t>e8af71f4-f029-4ca4-8fc4-86dba8a74528</t>
   </si>
   <si>
     <t>1400892</t>
@@ -202,7 +202,7 @@
     <t>1e8701a7-5f35-4628-bcd1-03c21f7650b7</t>
   </si>
   <si>
-    <t>2035f5a9-2de6-42d3-aade-918abe09fb26</t>
+    <t>b5e5cd3d-52c4-4e41-aaa7-1f559526c529</t>
   </si>
   <si>
     <t>802784</t>
@@ -214,7 +214,7 @@
     <t>Flat No 2A2, Pacific Point, 550 Boral Main Road, Kolkata 700154</t>
   </si>
   <si>
-    <t>63f3b464-2d51-4e49-8ef7-313fd50b466a</t>
+    <t>9fef4978-1096-4ca1-a4cc-9517f210e32e</t>
   </si>
   <si>
     <t>304945</t>
@@ -229,7 +229,7 @@
     <t>49836ab0-f0a4-4c9a-bfa4-c65d8f56ff75</t>
   </si>
   <si>
-    <t>5cce9ea2-cb78-4e68-8f8d-44e39516188c</t>
+    <t>da3c90ac-4163-43d6-ade9-c01c4cb2bc96</t>
   </si>
   <si>
     <t>1200412</t>
@@ -244,7 +244,7 @@
     <t>a29552a0-c1f8-413b-8862-a271251ad539</t>
   </si>
   <si>
-    <t>0539f01a-bfae-4523-97ba-9f26477a6d00</t>
+    <t>a2247ce9-57a1-4758-b137-9836ebd84373</t>
   </si>
   <si>
     <t>600585</t>
@@ -256,7 +256,7 @@
     <t>Atreyi Appt., Mondal Bagan, Lichutala, Hooghly-712136</t>
   </si>
   <si>
-    <t>7fdd0432-346c-4816-a8db-dfae66dc52f1</t>
+    <t>0e1f39f2-1e7f-41a3-a764-7592d32fcd73</t>
   </si>
   <si>
     <t>1002862</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">Rabindranagar, Opposite to Happy Health Nursing Home, PO-Midnapore, Dist-Mindapore-West, PIN-721101 </t>
   </si>
   <si>
-    <t>afb7f191-d4d6-49bc-ae94-2c5582e85a2b</t>
+    <t>d277078c-1340-4096-81e9-dbd6cbfd148b</t>
   </si>
   <si>
     <t>600648</t>
@@ -283,7 +283,7 @@
     <t>0012a4aa-efd8-4e4d-aa31-5732f55bfd2b</t>
   </si>
   <si>
-    <t>a17f8025-a942-4f7e-adbc-8098b19a125c</t>
+    <t>e792734a-3001-43e1-b6b6-42faea6eb5cf</t>
   </si>
   <si>
     <t>1001030</t>
@@ -298,7 +298,7 @@
     <t>34d4f34f-be5d-4e67-865b-c9f0534a95d9</t>
   </si>
   <si>
-    <t>bec3eec2-17bf-4d3d-ac78-7aa753808a58</t>
+    <t>9364fd81-ec15-45bf-acb2-2c72dd4de305</t>
   </si>
   <si>
     <t>803955</t>
@@ -313,7 +313,7 @@
     <t>bb336e8c-1293-4c47-97a6-d55285d9b058</t>
   </si>
   <si>
-    <t>81534bc7-e929-434d-bc9b-5d5133aa9da3</t>
+    <t>3a7001c6-f36c-4f3e-9785-c59d71304b1e</t>
   </si>
   <si>
     <t>803748</t>
@@ -328,7 +328,7 @@
     <t>58d20fd2-5b0f-41da-a06c-5be798ea902d</t>
   </si>
   <si>
-    <t>04e58755-5e70-455e-804c-ed01b64d07a3</t>
+    <t>2034b592-1af2-451e-ba10-bc0e81d45200</t>
   </si>
   <si>
     <t>803761</t>
@@ -343,7 +343,7 @@
     <t>2ac62d81-e51d-49ef-a991-b7ab2c2f0ecb</t>
   </si>
   <si>
-    <t>6c969370-d244-40a7-a65c-2fab9529c1b3</t>
+    <t>d88c17f1-982d-47cb-aab2-6add61615b72</t>
   </si>
   <si>
     <t>600302</t>
@@ -358,7 +358,7 @@
     <t>94549f92-a11a-49b0-9b05-fb1d2c1ef683</t>
   </si>
   <si>
-    <t>7a6ea22b-9ef7-499e-a791-69b9ce7e3dd4</t>
+    <t>f6e940d7-5591-4498-91ee-8c9ad68d6954</t>
   </si>
   <si>
     <t>1000967</t>
@@ -373,7 +373,7 @@
     <t>0475b510-bc49-4e8d-88d2-4bb4ec5d3212</t>
   </si>
   <si>
-    <t>a2760690-496d-4119-8616-071067c132af</t>
+    <t>445d9a79-23fb-4811-9101-0cd6a593e225</t>
   </si>
   <si>
     <t>803785</t>
@@ -388,7 +388,7 @@
     <t>3fd9f9be-6a82-43c7-8fd1-042826caf0d2</t>
   </si>
   <si>
-    <t>17b0693f-5631-49e3-9ece-a465cab71e8b</t>
+    <t>e6edb660-28c5-4a96-bcc5-9f76c60614bb</t>
   </si>
   <si>
     <t>60160142</t>
@@ -403,7 +403,7 @@
     <t>b0eb1925-86c9-47f8-a988-12624f634833</t>
   </si>
   <si>
-    <t>393cc9cc-169e-43ba-a547-aea7d146c561</t>
+    <t>121d8dfc-4c0e-4a53-a60b-283a2a07cc8a</t>
   </si>
   <si>
     <t>803784</t>
@@ -418,7 +418,7 @@
     <t>40170256-c17c-4142-b7bc-4ab99f5994d5</t>
   </si>
   <si>
-    <t>15e89327-a5a9-4432-911f-a4ea89635be7</t>
+    <t>984d1e39-3c59-4a2e-b757-421fd0c0d045</t>
   </si>
   <si>
     <t>803743</t>
@@ -433,7 +433,7 @@
     <t>0fb86390-bb94-4850-9180-b809bc01d2fb</t>
   </si>
   <si>
-    <t>33e2a25c-25cf-4203-9fd0-4a651f760d40</t>
+    <t>0bbcccb6-f0cd-498f-8f7b-1648e9ec2a35</t>
   </si>
   <si>
     <t>903867</t>
@@ -448,7 +448,7 @@
     <t>638d32b5-58b8-48dc-937c-be2e388ffc0c</t>
   </si>
   <si>
-    <t>a2d3d1c4-2618-4cab-8309-f0dc8a8838ee</t>
+    <t>3b1d6e78-0b46-48a9-818f-82b6c47ba983</t>
   </si>
   <si>
     <t>803763</t>
@@ -463,7 +463,7 @@
     <t>5e83febd-76d8-44dd-ac58-c70837c7f1c0</t>
   </si>
   <si>
-    <t>9d67f058-8b81-44e5-bbf6-3dc9cf2ae6d6</t>
+    <t>0aa3a288-437a-4a28-af74-c4f483c5e5b0</t>
   </si>
   <si>
     <t>900169</t>
@@ -478,7 +478,7 @@
     <t>e3ae30e4-87f3-4201-98c3-29afe89ebb39</t>
   </si>
   <si>
-    <t>078fdf32-90e3-4ce6-a19f-190e51d90205</t>
+    <t>35440996-bb0d-42b5-a64d-d6e4f7bf1846</t>
   </si>
   <si>
     <t>60480010</t>
@@ -490,7 +490,7 @@
     <t>42/1 H, PGH Shah Road, Kol-32</t>
   </si>
   <si>
-    <t>c13954dc-c427-4099-ab29-e72ffdaaf5b0</t>
+    <t>81dfd988-0cb4-40d2-ae62-3f8623fe0d92</t>
   </si>
   <si>
     <t>700379</t>
@@ -505,7 +505,7 @@
     <t>fcd4a515-d385-45d7-8373-cba1b621c102</t>
   </si>
   <si>
-    <t>b8677d6d-d9db-4968-b842-22783e281fdb</t>
+    <t>69f4a6d6-5d89-4299-b8d1-2c12e410794c</t>
   </si>
   <si>
     <t>803728</t>
@@ -520,7 +520,7 @@
     <t>9336fd6e-aefe-45f4-8b4e-fb30631ee649</t>
   </si>
   <si>
-    <t>e1377cab-4e31-4288-91b8-97fa60ed4732</t>
+    <t>551c9da5-6d36-461f-ab1e-503f9aea0c78</t>
   </si>
   <si>
     <t>803740</t>
@@ -535,7 +535,7 @@
     <t>59b2783a-d85c-4dee-90db-b777e4d4f501</t>
   </si>
   <si>
-    <t>c760cd67-6280-4c21-a67a-f050341a2d14</t>
+    <t>40f771a8-2cf9-4b7f-8cb7-3be900115b63</t>
   </si>
   <si>
     <t>1002861</t>
@@ -550,7 +550,7 @@
     <t>637d0445-bdd5-44bd-8c8c-c26b0a588590</t>
   </si>
   <si>
-    <t>7e86b350-6d82-43c0-b83a-a89188966d12</t>
+    <t>618043d3-c11c-48f2-840a-39d11093519b</t>
   </si>
   <si>
     <t>803873</t>
@@ -565,7 +565,7 @@
     <t>b665b9da-64cc-47f5-83ce-fece32ce7800</t>
   </si>
   <si>
-    <t>c2e1ddc7-950e-486b-b387-e89159f61201</t>
+    <t>5aaf8216-e4c1-4457-9206-0443c2504223</t>
   </si>
   <si>
     <t>1001119</t>
@@ -580,7 +580,7 @@
     <t>a1b46592-5ca5-4a58-aa1b-369eb2c0f8bd</t>
   </si>
   <si>
-    <t>82cdd550-2948-43ae-9b43-1454b5b86602</t>
+    <t>afbcbf31-522d-42f7-8dbe-2bb0d91d8bbc</t>
   </si>
   <si>
     <t>1200007</t>
@@ -595,7 +595,7 @@
     <t>0967524f-1fd0-4964-aca9-715dc32a575c</t>
   </si>
   <si>
-    <t>5d745e4e-0fa5-4f78-b3e9-f0e6ca566e14</t>
+    <t>fa03db0f-b9dc-4ede-8728-3e6765713168</t>
   </si>
   <si>
     <t>303525</t>
@@ -610,7 +610,7 @@
     <t>f42af8e6-86a3-4302-822c-e5f70107ded6</t>
   </si>
   <si>
-    <t>72d43a90-8d7a-4200-93ce-42507fdd0ada</t>
+    <t>b79d2429-0521-490f-a3b7-cf6f35e418bc</t>
   </si>
   <si>
     <t>901103</t>
@@ -625,7 +625,7 @@
     <t>52a39e39-2a2c-418c-9846-0edc25b7f982</t>
   </si>
   <si>
-    <t>5bb53576-14dd-4a86-a7d6-59f46dbcc5eb</t>
+    <t>6f3522a5-2c9d-4225-afff-8a60f4aedd1e</t>
   </si>
   <si>
     <t>1400627</t>
@@ -640,7 +640,7 @@
     <t>949ac029-b047-4165-8e4e-4adf589700c5</t>
   </si>
   <si>
-    <t>69e3579a-286d-44f7-b30f-e76e2c5cfd25</t>
+    <t>047342ba-e1f8-4a55-8b8d-b1a3dca2887c</t>
   </si>
   <si>
     <t>1001815</t>
@@ -661,7 +661,7 @@
     <t>4bc2a086-b131-47e1-9c20-f10650c0196d</t>
   </si>
   <si>
-    <t>177b62ed-886a-4bf0-b675-cabd810c2fbf</t>
+    <t>5e6883ca-4419-4f5e-b3d3-01672e8d62eb</t>
   </si>
   <si>
     <t>803940</t>
@@ -679,7 +679,7 @@
     <t>d8d5f6cf-bb59-4a60-b411-eb2bdc1382cc</t>
   </si>
   <si>
-    <t>c2a4c7ab-9447-42f2-bb33-e7d5ce0ab21b</t>
+    <t>20b1c63e-6e42-46fd-b83b-57f86b38a263</t>
   </si>
   <si>
     <t>903956</t>
@@ -697,7 +697,7 @@
     <t>280c1d8d-9be5-4187-9a86-f49a652b989e</t>
   </si>
   <si>
-    <t>c7a03e39-767b-447e-a4b0-d00f4fe6bb11</t>
+    <t>2c707bdb-0c71-4c6f-a615-81763fc80770</t>
   </si>
   <si>
     <t>904289</t>
@@ -715,7 +715,7 @@
     <t>93e3e63b-4426-4839-8d45-945a2f36dbfe</t>
   </si>
   <si>
-    <t>a38f4810-0d84-4053-88c2-77b44db0741d</t>
+    <t>b1327f0d-345d-48fe-bc64-5b2555d6ad76</t>
   </si>
   <si>
     <t>700464</t>
@@ -730,7 +730,7 @@
     <t>553e4957-fef7-4793-b558-4894a7be9b3e</t>
   </si>
   <si>
-    <t>6f75f4ab-8a3f-4536-853e-b8dd521311ab</t>
+    <t>6ac64fd2-2865-47a3-9b3b-d66320a307db</t>
   </si>
   <si>
     <t>1200006</t>
@@ -742,7 +742,7 @@
     <t>77ebc582-957d-47dd-8886-7fe3484ae497</t>
   </si>
   <si>
-    <t>7f615b8d-1ebd-41eb-a422-018ee7324a25</t>
+    <t>30e11f21-73fe-46d6-81b8-92e7c91258a5</t>
   </si>
   <si>
     <t>803314</t>
@@ -757,7 +757,7 @@
     <t>28a60315-706e-4cc8-ac10-1d4c13c457c9</t>
   </si>
   <si>
-    <t>bbefa622-c03e-419f-a82f-8ab8713c8dec</t>
+    <t>6bbc2324-9d9a-4f51-8cd2-9c91c24f64b3</t>
   </si>
   <si>
     <t>804143</t>
@@ -772,7 +772,7 @@
     <t>747b93d6-fac2-4aeb-b476-eace2882b8cb</t>
   </si>
   <si>
-    <t>301fb329-c037-4b39-9c2e-51c10c04da0f</t>
+    <t>1e3e5b5d-cd86-4cd9-a190-a29d4f3ab45b</t>
   </si>
   <si>
     <t>304943</t>
@@ -787,7 +787,7 @@
     <t>fab97d40-2c31-4dea-99e6-93dfc6d69d08</t>
   </si>
   <si>
-    <t>826eec32-4e9b-43f2-adfa-4672e7eb701e</t>
+    <t>45a7485d-4bcf-4267-843e-66c9aa876c5a</t>
   </si>
   <si>
     <t>600338</t>
@@ -802,7 +802,7 @@
     <t>59ba9da3-38ef-4333-8cd7-1bbd52731309</t>
   </si>
   <si>
-    <t>400505f7-3138-44f4-af35-571ceb15331a</t>
+    <t>9c8d9e8b-9bd4-4a10-90c0-aa4c010171a0</t>
   </si>
   <si>
     <t>900198</t>
@@ -822,7 +822,7 @@
     <t>fca10c56-72dc-444d-b7a6-e3795ca1247e</t>
   </si>
   <si>
-    <t>2b00ba07-35f9-42e2-9265-ea0b51471153</t>
+    <t>44f3d395-d5d3-466c-b95f-427eb8ab9847</t>
   </si>
   <si>
     <t>600371</t>
@@ -837,7 +837,7 @@
     <t>1dc3f3cd-c96e-481e-a33b-d0011011ae10</t>
   </si>
   <si>
-    <t>dcb6e1a6-04e1-4b02-b002-86988cc60f7e</t>
+    <t>318df5c6-b0c9-44b7-8b72-49815ffd83fb</t>
   </si>
   <si>
     <t>99104742</t>
@@ -855,7 +855,7 @@
     <t>186457f6-bbd0-4f12-b286-2c0bebf60b0d</t>
   </si>
   <si>
-    <t>b12801ec-00a9-4890-ad82-4a4d0a9bdb32</t>
+    <t>240582f9-37f4-41cf-9cd0-9c9dc79f0df8</t>
   </si>
   <si>
     <t>900190</t>
@@ -870,7 +870,7 @@
     <t>fc4f4d88-1318-426f-8a2d-831c3b48f3f1</t>
   </si>
   <si>
-    <t>55a8ad51-97cd-48ec-aa37-464a144023bb</t>
+    <t>70419a22-46ed-4ac8-b64e-2319abf26b46</t>
   </si>
   <si>
     <t>900183</t>
@@ -891,7 +891,7 @@
     <t>40334e34-03d9-4f12-b83d-3c3b99dc3b3c</t>
   </si>
   <si>
-    <t>36392383-5885-45f5-b025-03c37397e70e</t>
+    <t>a3b573a0-6231-4868-9754-50569dc6889c</t>
   </si>
   <si>
     <t>99105398</t>
@@ -906,7 +906,7 @@
     <t>e155efba-40d6-4c04-b233-75c8839cc079</t>
   </si>
   <si>
-    <t>6e84ac8b-7443-475c-a0f1-4f23d0f3cba4</t>
+    <t>4e1c3467-ceef-4155-9952-62619685d61e</t>
   </si>
   <si>
     <t>99104874</t>
@@ -921,7 +921,7 @@
     <t>e5cb2f0f-16a8-487a-9f51-6617c07d2458</t>
   </si>
   <si>
-    <t>103d7072-1907-48a3-a532-0dc51dfd9c69</t>
+    <t>3cfcce79-9cc8-48ac-aece-550f5d602729</t>
   </si>
   <si>
     <t>803901</t>
@@ -936,7 +936,7 @@
     <t>9477f949-9218-4cd9-8e00-25e887736460</t>
   </si>
   <si>
-    <t>e66fcba3-ce84-415c-a2d7-cd8cfe4e3fec</t>
+    <t>0f25e81b-17f9-4013-b04c-0379bb3b8b41</t>
   </si>
   <si>
     <t>1001041</t>
@@ -951,7 +951,7 @@
     <t>2dca3bcf-5cbc-4ce3-a97d-f71b993e4d49</t>
   </si>
   <si>
-    <t>50013e85-58ac-4888-b53a-0fb1fc161db0</t>
+    <t>24a8d040-ab51-4cad-b896-22f7682c1317</t>
   </si>
   <si>
     <t>900193</t>
@@ -966,7 +966,7 @@
     <t>987d138a-f967-4a7c-9c92-bb1f9972db4e</t>
   </si>
   <si>
-    <t>50c10cfc-031c-465c-b106-ce1f8e59b5cb</t>
+    <t>63a3328c-0f03-4f0c-9b03-85b808536706</t>
   </si>
   <si>
     <t>803872</t>
@@ -981,7 +981,7 @@
     <t>99d4b224-9d2d-4b7f-aa11-bd539b9f6be9</t>
   </si>
   <si>
-    <t>23e957fe-f655-4223-8420-29e15f6ebb85</t>
+    <t>204f6016-0b01-4764-b484-419f1d37bad3</t>
   </si>
   <si>
     <t>803984</t>
@@ -993,7 +993,7 @@
     <t>60/6/1 Rahuta Road Ramkrishna pally,PS-Jagaddal,24Pgs(N),PIN-743127</t>
   </si>
   <si>
-    <t>8328a3e7-b994-41eb-b878-ba17eb4ed8f8</t>
+    <t>369d38f4-cf82-4d04-b279-86b1f75917bd</t>
   </si>
   <si>
     <t>1001540</t>
@@ -1008,7 +1008,7 @@
     <t>320dd9c8-9cf5-4fab-9f4d-1d36e92315a8</t>
   </si>
   <si>
-    <t>85dfe750-2f96-46c6-90fa-1f546a870647</t>
+    <t>4fd25850-0630-4bdf-9ea5-6b18929d6ed8</t>
   </si>
   <si>
     <t>803765</t>
@@ -1023,7 +1023,7 @@
     <t>f95f438e-3300-4707-bbbf-7e2b7f7a3e8f</t>
   </si>
   <si>
-    <t>4b5ca3cd-2a41-4016-969c-1141a019103b</t>
+    <t>81a6846e-d7af-4abc-8ea2-3b1fadd45900</t>
   </si>
   <si>
     <t>600649</t>
@@ -1038,7 +1038,7 @@
     <t>bfe60cc8-afb0-47ba-bab0-912e4dac73f6</t>
   </si>
   <si>
-    <t>ba9ec443-d6f0-42ef-879b-bfc5354547f8</t>
+    <t>e087f8d5-a274-4b2e-af07-3c4df3913336</t>
   </si>
   <si>
     <t>1001028</t>
@@ -1053,7 +1053,7 @@
     <t>61940e36-beb7-4b61-893c-7012ee98fd83</t>
   </si>
   <si>
-    <t>4ca8e836-3f43-4b60-a8f3-cc62184b8a60</t>
+    <t>8d6f90a8-b5b2-4ef4-a761-cb74807dcc3f</t>
   </si>
   <si>
     <t>60048770</t>
@@ -1068,7 +1068,7 @@
     <t>74e3a3df-fbed-4278-ad43-935b2ac2baae</t>
   </si>
   <si>
-    <t>0d354859-953f-458a-8256-ec80cd420a27</t>
+    <t>b656cfbd-9731-4617-9303-0962b2aaf1e1</t>
   </si>
   <si>
     <t>60320156</t>
@@ -1080,7 +1080,7 @@
     <t>F-1b, Muktaneer cooperative, Street no 594, action area 2b, Newtown, Kol-162</t>
   </si>
   <si>
-    <t>caae4a55-fc12-476f-83ef-a3bc1f8b0a69</t>
+    <t>cab72a99-f931-4707-a9d0-2e20a23ab0e8</t>
   </si>
   <si>
     <t>1000173</t>
@@ -1092,7 +1092,7 @@
     <t xml:space="preserve"> 2 NO.DEBIGARH , 3RD LANE , MONOSHA LANE, MADHAYMGRAM, KOLKATA-700129</t>
   </si>
   <si>
-    <t>55c72f80-f233-48e2-a485-14cc99c668a8</t>
+    <t>c39ad963-03a3-458c-8ea0-e1b7e83fe22d</t>
   </si>
   <si>
     <t>99104623</t>
@@ -1107,7 +1107,7 @@
     <t>dc0503ab-0966-45ad-a52b-5c120299be3f</t>
   </si>
   <si>
-    <t>62048b15-6894-41be-8c1f-6a3d8bf47393</t>
+    <t>d3880872-42fd-4d5c-ab8c-56aa60a4e3eb</t>
   </si>
   <si>
     <t>1000966</t>
@@ -1122,7 +1122,7 @@
     <t>88a61178-6569-4796-b5c8-d3bc0cb7ca59</t>
   </si>
   <si>
-    <t>297d21bf-e977-4165-b376-296c68dd0933</t>
+    <t>017ac4e7-72ad-4d80-8bf8-d383ad84a658</t>
   </si>
   <si>
     <t>1000999</t>
@@ -1137,7 +1137,7 @@
     <t>ab2032cb-0c24-4475-b502-c600febe3179</t>
   </si>
   <si>
-    <t>4ae63240-378b-41a5-b403-06eab422a07e</t>
+    <t>29c62070-4873-4b5b-b5ee-8f41a84cfd24</t>
   </si>
   <si>
     <t>903870</t>
@@ -1152,7 +1152,7 @@
     <t>f758fe0d-002b-4c92-a997-c516b3c79cfb</t>
   </si>
   <si>
-    <t>59a2826a-a559-4d68-8ef8-e7082b62a29d</t>
+    <t>de305295-1809-4f43-9f61-e219b3073820</t>
   </si>
   <si>
     <t>1002768</t>
@@ -1164,7 +1164,7 @@
     <t>e706b7e1-5996-4e07-953e-e949024c9067</t>
   </si>
   <si>
-    <t>ebe0b9c1-f13a-40aa-9e0f-d1d219ef6483</t>
+    <t>43236541-1c39-4564-8fff-2a75f8ff1a53</t>
   </si>
   <si>
     <t>903868</t>
@@ -1176,7 +1176,7 @@
     <t>fcbfbfd0-b637-4209-8b84-0c79a886edc1</t>
   </si>
   <si>
-    <t>771e0b1a-5df0-433f-94a7-c6b3767a5e53</t>
+    <t>5da0a45a-e3cc-4a92-8b1d-e680f0d95d10</t>
   </si>
   <si>
     <t>304844</t>
@@ -1191,7 +1191,7 @@
     <t>71121a19-fc47-4303-a1a8-9f7b54f5d2e8</t>
   </si>
   <si>
-    <t>0b73e88c-d8f3-431f-aa6b-d1fa9eb4e54e</t>
+    <t>67541d50-d603-4292-b28c-2b88d029fea5</t>
   </si>
   <si>
     <t>904073</t>
@@ -1206,7 +1206,7 @@
     <t>78380c7c-4474-49e9-810b-c49d77c28fbd</t>
   </si>
   <si>
-    <t>ad6c81ec-213a-4873-b9da-f15d9db1a3d7</t>
+    <t>fc28287d-2c6c-449e-a181-63882d2a9704</t>
   </si>
   <si>
     <t>903908</t>
@@ -1215,7 +1215,7 @@
     <t>SUPRATIK SETT</t>
   </si>
   <si>
-    <t>62b6a664-fdbe-4d02-8bb7-c9f303202331</t>
+    <t>bbff9418-b2ce-48bc-b879-b78ae3c5167f</t>
   </si>
   <si>
     <t>600439</t>
@@ -1230,7 +1230,7 @@
     <t>66f6f105-5845-490b-9094-04101a217e49</t>
   </si>
   <si>
-    <t>1b1e6f22-9236-40bb-a974-eef52b3bf75c</t>
+    <t>dccd136c-11c9-46e7-962a-d9d5de51b85b</t>
   </si>
   <si>
     <t>900205</t>
@@ -1245,7 +1245,7 @@
     <t>b783c8a5-2836-4dda-9f12-9f78e296c6a9</t>
   </si>
   <si>
-    <t>e3eceacd-ff54-407d-9635-d4629ed92c5c</t>
+    <t>0220547b-08b4-42ad-b8e5-63c22649e756</t>
   </si>
   <si>
     <t>60320015</t>
@@ -1257,7 +1257,7 @@
     <t>19/22 K.B SARANI MALL ROAD DUMDUM KOLKATA 700080</t>
   </si>
   <si>
-    <t>74c13c01-96e6-4285-99f1-f5061844004a</t>
+    <t>626cb06a-09be-4c93-992c-db5ea388f0ef</t>
   </si>
   <si>
     <t>203688</t>
@@ -1272,7 +1272,7 @@
     <t>d4b70c8d-7c7c-4a5c-99d8-2be12a15bba9</t>
   </si>
   <si>
-    <t>0b3f1fd3-058d-4143-af2c-d0cee120def7</t>
+    <t>84005423-f91f-4244-b073-caa7e5f0b732</t>
   </si>
   <si>
     <t>99211218</t>
@@ -1287,7 +1287,7 @@
     <t>733e7704-2983-45c7-8420-4b1d56193218</t>
   </si>
   <si>
-    <t>bb5e12f6-bc1a-4941-af55-8e7f2422558f</t>
+    <t>da82c464-7d6b-4e9f-b730-87e231d18f16</t>
   </si>
   <si>
     <t>803750</t>
@@ -1299,7 +1299,7 @@
     <t>777 Sarat Chatterjee Rd, Chatterjeehat How-711104</t>
   </si>
   <si>
-    <t>f05991dd-327c-4751-ba24-fa115b6254f4</t>
+    <t>721f7d9e-ec5d-4558-bfd7-3c3e9dcbcabe</t>
   </si>
   <si>
     <t>304687</t>
@@ -1314,7 +1314,7 @@
     <t>b90dc7a3-45b2-440b-a69d-4283aae3ba41</t>
   </si>
   <si>
-    <t>e8cd2dfe-8c56-487d-9180-3b5a1e32e200</t>
+    <t>cfb545c0-1c69-4378-83fe-b0e5cb047055</t>
   </si>
   <si>
     <t>900531</t>
@@ -1329,7 +1329,7 @@
     <t>5dd3cb53-6e7e-4cd4-af7d-49ded556fb87</t>
   </si>
   <si>
-    <t>75837191-2a4c-4c02-ade6-1e4c33f6f677</t>
+    <t>24d67cfb-0b20-4fb2-9f7e-5a07c20c3a9c</t>
   </si>
   <si>
     <t>99105349</t>
@@ -1344,7 +1344,7 @@
     <t>e509ee25-956f-436c-8fe2-0c2fe658970f</t>
   </si>
   <si>
-    <t>1e2e1c7d-c381-49bb-a3c1-66325cc2a2b1</t>
+    <t>12e97595-2be1-486a-9587-28a68e2ff8fe</t>
   </si>
   <si>
     <t>600466</t>
@@ -1356,7 +1356,7 @@
     <t>5A, J C BOSE ROAD, PALLISREE, SODEPUR, 24 PGS(NORTH),KOLKATA700110</t>
   </si>
   <si>
-    <t>ec28f00f-24e9-46c6-8075-e5cb1e90bae7</t>
+    <t>76afde40-33a6-426f-9da6-b3b877cb775c</t>
   </si>
   <si>
     <t>99308283</t>
@@ -1368,7 +1368,7 @@
     <t>7096a568-944d-4373-9c85-10b4b7fe1bd2</t>
   </si>
   <si>
-    <t>b192de79-104a-4ffc-b4c9-fd332350ea7b</t>
+    <t>4128d6c4-0565-44ba-9eb3-ddf6d8053862</t>
   </si>
   <si>
     <t>99802624</t>
@@ -1383,7 +1383,7 @@
     <t>7f4b8726-c86d-47f5-9e94-21040243debb</t>
   </si>
   <si>
-    <t>67a371a4-64ee-4287-bef2-2385b9d71442</t>
+    <t>54b93f0f-7138-4805-bfb0-52961585d814</t>
   </si>
   <si>
     <t>304744</t>
@@ -1395,7 +1395,7 @@
     <t>700b2a45-8422-4bd9-9c31-27c0fbbd01db</t>
   </si>
   <si>
-    <t>f3535132-3f3b-4a29-8cb2-8a28126fa160</t>
+    <t>d930d75f-22ef-43c8-b261-b7671839e31c</t>
   </si>
   <si>
     <t>1000959</t>
@@ -1410,7 +1410,7 @@
     <t>60e5abdf-7248-4bbf-bc99-6b41c58408a7</t>
   </si>
   <si>
-    <t>9d756b88-2705-4cde-a2b0-fe49199bdd95</t>
+    <t>a98a5a70-f226-4eb6-9985-88f775f401df</t>
   </si>
   <si>
     <t>60260501</t>
@@ -1425,7 +1425,7 @@
     <t>0a053f39-3f27-451d-9fa9-ae9fba5c8657</t>
   </si>
   <si>
-    <t>5e8abd5a-7481-4bac-8315-9add4c7b814e</t>
+    <t>a2d53a29-0b18-46ca-9cad-abe0fe4d7b5c</t>
   </si>
   <si>
     <t>304820</t>
@@ -1437,7 +1437,7 @@
     <t>c374e2f7-1f40-407e-be7f-e26e6bff1195</t>
   </si>
   <si>
-    <t>6fd05347-dfea-4bdc-8c3c-7fdb0bafd978</t>
+    <t>6d19104f-50a2-4a76-8b98-35be9c38e46c</t>
   </si>
   <si>
     <t>304738</t>
@@ -1446,7 +1446,7 @@
     <t>SUDIPTA DAS</t>
   </si>
   <si>
-    <t>3eecfe19-cef5-4238-b6dc-10b631f980fb</t>
+    <t>22aee5b9-62ee-4f66-837d-8dd25e31c3ce</t>
   </si>
   <si>
     <t>99804095</t>
@@ -1461,7 +1461,7 @@
     <t>9600df11-583c-4ff5-8a6e-021c973247e1</t>
   </si>
   <si>
-    <t>69f417e0-25d2-453b-8b88-3968505602ad</t>
+    <t>84350cb9-1ddc-42ca-9be2-a6953034d482</t>
   </si>
   <si>
     <t>304810</t>
@@ -1476,7 +1476,7 @@
     <t>62105f07-08a0-46a8-bb3b-5505e0b214c7</t>
   </si>
   <si>
-    <t>82cc7d61-0b1b-4755-8125-d557564c4478</t>
+    <t>e5e11356-f98e-48b0-b094-1017c749049c</t>
   </si>
   <si>
     <t>600659</t>
@@ -1491,7 +1491,7 @@
     <t>2385c5ff-ff7b-4984-a56a-300e4bea8425</t>
   </si>
   <si>
-    <t>49ef44e7-b997-41f1-a2b5-ded20e930a35</t>
+    <t>40c31aeb-a70f-466d-bee1-2b2a32afd9c4</t>
   </si>
   <si>
     <t>99210139</t>
@@ -1503,7 +1503,7 @@
     <t>db24d376-9d46-44ec-973d-3809db464ceb</t>
   </si>
   <si>
-    <t>151650b3-cfad-49f9-a960-bb6336ec1f11</t>
+    <t>9a727315-35a9-4eba-8b1e-56494d62d753</t>
   </si>
   <si>
     <t>203199</t>
@@ -1518,7 +1518,7 @@
     <t>95d7c735-f126-4203-a424-237182436927</t>
   </si>
   <si>
-    <t>5872c9e6-7c4a-45ba-ae4e-12025d5aa2a1</t>
+    <t>5b365c56-e8ec-43db-94e4-b142fa1aeeec</t>
   </si>
   <si>
     <t>99004236</t>
@@ -1533,7 +1533,7 @@
     <t>4a637295-d165-4031-832a-15ac22023e67</t>
   </si>
   <si>
-    <t>24b1608f-e5dc-4562-b4cf-884039e48819</t>
+    <t>627cf110-14ee-4c59-a767-eb2365d346c8</t>
   </si>
   <si>
     <t>804001</t>
@@ -1548,7 +1548,7 @@
     <t>c43c1e33-1328-44f5-8044-70a987f0e2a0</t>
   </si>
   <si>
-    <t>9187de5c-793a-45ef-aabe-fcf36d84f057</t>
+    <t>be6eb78d-ed7f-4420-bc19-5223cbbeedef</t>
   </si>
   <si>
     <t>904102</t>
@@ -1563,7 +1563,7 @@
     <t>1c96c4b9-f5ef-461a-9795-ea75260422c8</t>
   </si>
   <si>
-    <t>dda0f17d-e497-4318-813a-3174c0dadd0f</t>
+    <t>9a9fbebe-ef26-4d0e-9b61-72842045f73a</t>
   </si>
   <si>
     <t>1400894</t>
@@ -1578,7 +1578,7 @@
     <t>c559b736-c8d4-4526-9a3a-61c6d7116a13</t>
   </si>
   <si>
-    <t>a3b50fc2-feb6-47fa-8dca-c92e4d54a68c</t>
+    <t>94df7b60-4477-4f0e-933b-daaf585317f9</t>
   </si>
   <si>
     <t>900185</t>
@@ -1593,7 +1593,7 @@
     <t>8a58cea8-d2a4-4b85-8e48-068ae144dacb</t>
   </si>
   <si>
-    <t>0b225431-2b6f-44bb-ade3-9905538d209a</t>
+    <t>d7c4390e-e471-4b57-b131-bac0b9b27e32</t>
   </si>
   <si>
     <t>203459</t>
@@ -1608,7 +1608,7 @@
     <t>28d721a7-7298-4c83-9a6a-692abcbb1557</t>
   </si>
   <si>
-    <t>5d28a6b3-8aa5-475c-8f69-d1a3f6d95f9c</t>
+    <t>9e680d66-c00c-4c01-932b-9487ad255b3c</t>
   </si>
   <si>
     <t>1002974</t>
@@ -1623,7 +1623,7 @@
     <t>42967955-f00b-4133-9984-e7a7bc96f3a3</t>
   </si>
   <si>
-    <t>d73e1147-20f0-40ce-92fa-f42a26db8fe1</t>
+    <t>3524b922-5c21-45ba-93de-ad61f7a8de74</t>
   </si>
   <si>
     <t>904172</t>
@@ -1638,7 +1638,7 @@
     <t>7038e0a5-7fde-4ac0-abc7-5599ef906b22</t>
   </si>
   <si>
-    <t>5d4c6c30-034e-478f-a48c-843d9fe72559</t>
+    <t>5b195a5d-072b-49f7-b740-43c939575197</t>
   </si>
   <si>
     <t>304889</t>
@@ -1653,7 +1653,7 @@
     <t>ffec4ed1-f2fa-46f0-b7b4-d7727f869f0d</t>
   </si>
   <si>
-    <t>24b28f41-64bd-4759-9647-aacaad2cc784</t>
+    <t>7f36db7c-0315-4e45-90fa-377424d4b36b</t>
   </si>
   <si>
     <t>99104903</t>
@@ -1665,7 +1665,7 @@
     <t>Nabagram, Near Manasha Mandir, Middle Road, Garia station P.O Panchpota, Kolkata 700152</t>
   </si>
   <si>
-    <t>0797f860-eec6-4a19-89ef-2e604885b5b3</t>
+    <t>24a318c0-4a2a-4edb-9c1a-0cf402d7f810</t>
   </si>
   <si>
     <t>803917</t>
@@ -1677,7 +1677,7 @@
     <t>Ram Bhawan Apartment, 19/16 K.B. Sarani, Mall Road, Kolkata-700080.</t>
   </si>
   <si>
-    <t>29ad3d06-a1ac-4280-983d-ce6bd3af5824</t>
+    <t>ac3ae543-822a-453a-92a7-9e403bd548ed</t>
   </si>
   <si>
     <t>700860</t>
@@ -1689,7 +1689,7 @@
     <t>671, S.H.K.B. SARANI, SOUTH DUMDUM(M),KOLKATA-700074</t>
   </si>
   <si>
-    <t>055e744e-d1b7-4efd-ab85-1a834ed4c79a</t>
+    <t>3867509c-aa94-4b6d-a996-f616fb3e04a4</t>
   </si>
   <si>
     <t>304818</t>
@@ -1701,7 +1701,7 @@
     <t>C-506,LOHARUKA GREEN OASIS,KAIKHALI,KOL-700136</t>
   </si>
   <si>
-    <t>4866e9f8-1aac-4138-b0bf-bf4aa78e9a22</t>
+    <t>887d85cc-550b-48a2-ba37-1826a096012e</t>
   </si>
   <si>
     <t>1401366</t>
@@ -1713,7 +1713,7 @@
     <t>af01f145-6858-4a12-931e-be2cfe48f44c</t>
   </si>
   <si>
-    <t>182e833d-c537-428c-b60d-d9a50ed750a5</t>
+    <t>93f74cf7-c349-4cab-beb5-7e38e2203233</t>
   </si>
   <si>
     <t>1001003</t>
@@ -1728,7 +1728,7 @@
     <t>22e4a9cd-5d88-4a61-a1b8-186b3b395e53</t>
   </si>
   <si>
-    <t>afeb356b-ddd4-4a14-80c3-ee02d61c9f80</t>
+    <t>7e95dbb5-a1c7-4352-8434-e345cd41ba33</t>
   </si>
   <si>
     <t>403053</t>
@@ -1737,7 +1737,7 @@
     <t>MOHAMMAD MEHDI IMAM</t>
   </si>
   <si>
-    <t>63ad568b-0bb2-412e-b729-cd03062fcf82</t>
+    <t>85fe1da1-02c1-4945-88fe-d561fdc73a73</t>
   </si>
   <si>
     <t>1000961</t>
@@ -1749,7 +1749,7 @@
     <t>10/35, NETAJI NAGAR, KOLKATA - 700040</t>
   </si>
   <si>
-    <t>707a280b-f3d1-4400-ae74-09643c6135e8</t>
+    <t>684938c9-8420-4829-bd93-fbc5012940ab</t>
   </si>
   <si>
     <t>600639</t>
@@ -1761,7 +1761,7 @@
     <t>f9c629d8-dcf7-4499-bdf6-b39dc3d64fb9</t>
   </si>
   <si>
-    <t>435dc120-7ca2-4dbb-90d9-37240f3573d9</t>
+    <t>c9043d20-b345-43c5-9ab5-4cc4f18ee9e2</t>
   </si>
   <si>
     <t>305467</t>
@@ -1782,7 +1782,7 @@
     <t>924e6439-e0fd-41f3-a1a3-63505eedf442</t>
   </si>
   <si>
-    <t>2a316a10-51b7-4a78-bb7f-4301a565e509</t>
+    <t>118f693a-9e7a-4ad3-b68a-ae957429b584</t>
   </si>
   <si>
     <t>303004</t>
